--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Npy-Prlhr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Npy-Prlhr.xlsx
@@ -525,52 +525,52 @@
         <v>23</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.319712</v>
+      </c>
+      <c r="H2">
+        <v>3.959136</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>1.697137</v>
-      </c>
-      <c r="H2">
-        <v>5.091411</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.01094433333333333</v>
+        <v>0.08121833333333332</v>
       </c>
       <c r="N2">
-        <v>0.032833</v>
+        <v>0.243655</v>
       </c>
       <c r="O2">
-        <v>0.9707012771996215</v>
+        <v>0.9961121149930909</v>
       </c>
       <c r="P2">
-        <v>0.9707012771996216</v>
+        <v>0.9961121149930909</v>
       </c>
       <c r="Q2">
-        <v>0.01857403304033333</v>
+        <v>0.10718480912</v>
       </c>
       <c r="R2">
-        <v>0.167166297363</v>
+        <v>0.96466328208</v>
       </c>
       <c r="S2">
-        <v>0.9707012771996215</v>
+        <v>0.9961121149930909</v>
       </c>
       <c r="T2">
-        <v>0.9707012771996216</v>
+        <v>0.9961121149930909</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,16 +587,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.697137</v>
+        <v>1.319712</v>
       </c>
       <c r="H3">
-        <v>5.091411</v>
+        <v>3.959136</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,28 +611,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.0003303333333333333</v>
+        <v>0.000317</v>
       </c>
       <c r="N3">
-        <v>0.0009909999999999999</v>
+        <v>0.000951</v>
       </c>
       <c r="O3">
-        <v>0.02929872280037843</v>
+        <v>0.003887885006909071</v>
       </c>
       <c r="P3">
-        <v>0.02929872280037843</v>
+        <v>0.00388788500690907</v>
       </c>
       <c r="Q3">
-        <v>0.0005606209223333333</v>
+        <v>0.000418348704</v>
       </c>
       <c r="R3">
-        <v>0.005045588300999999</v>
+        <v>0.003765138336</v>
       </c>
       <c r="S3">
-        <v>0.02929872280037843</v>
+        <v>0.003887885006909071</v>
       </c>
       <c r="T3">
-        <v>0.02929872280037843</v>
+        <v>0.00388788500690907</v>
       </c>
     </row>
   </sheetData>
